--- a/RaspberryPi/CoreExamples/BatteryCurve/TimeUSB_50Ah.xlsx
+++ b/RaspberryPi/CoreExamples/BatteryCurve/TimeUSB_50Ah.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgerb/Desktop/Picrogrid/RaspberryPi/CoreExamples/BatteryCurve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F2E66-89B6-4649-8729-96C40A75CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9947A20A-AA9A-DE48-98D8-EC91325414B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="3620" windowWidth="28040" windowHeight="17440" xr2:uid="{85590C88-D628-1141-8C49-CA5E8A70523D}"/>
+    <workbookView xWindow="6520" yWindow="3620" windowWidth="28040" windowHeight="17440" xr2:uid="{85590C88-D628-1141-8C49-CA5E8A70523D}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
+    <sheet name="other" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Hour</t>
   </si>
@@ -55,12 +56,18 @@
   <si>
     <t>SOC %</t>
   </si>
+  <si>
+    <t>57013 mV</t>
+  </si>
+  <si>
+    <t>Highest battery voltage measurement after many days charging, measured at 0A load and 0A solar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +201,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -537,9 +550,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -28092,4 +28106,29 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D6583B-17BE-9048-A6E8-1159461C2F52}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>